--- a/data/trans_dic/P32B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04438769419096326</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.005118344885969077</v>
+        <v>0.005118344885969078</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02295189435183095</v>
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006228571584406846</v>
+        <v>0.006292628439524562</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06489633576862375</v>
+        <v>0.06414753023997921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04205811439574218</v>
+        <v>0.04042121021103735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007197569179615641</v>
+        <v>0.007014562762961545</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01726279305588014</v>
+        <v>0.01563998961867466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008850491671023666</v>
+        <v>0.008532475215624198</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04223967457440422</v>
+        <v>0.04582898005005859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03992739308798159</v>
+        <v>0.03766978184164339</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.004709263223744911</v>
+        <v>0.004591197790535084</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05071173903699678</v>
+        <v>0.05295075647680218</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1576955189148209</v>
+        <v>0.1600735588296183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1291069618351814</v>
+        <v>0.128892924142843</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06645391408453696</v>
+        <v>0.06759457053452465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09727768337358679</v>
+        <v>0.08862692872572449</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06073403883110467</v>
+        <v>0.05627696439625197</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1032312073714253</v>
+        <v>0.09504600330677876</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03117203467652426</v>
+        <v>0.03110887951755125</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05124069643712603</v>
+        <v>0.05014748705469389</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1055341303824861</v>
+        <v>0.1109160287078822</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09958948943773019</v>
+        <v>0.1012391648370241</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04730717567826635</v>
+        <v>0.05003871416218347</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.007650889516131703</v>
+        <v>0.007650889516131704</v>
       </c>
     </row>
     <row r="8">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004364162305387233</v>
+        <v>0.004028590081967898</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01287604892993529</v>
+        <v>0.0125595587509874</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
@@ -858,10 +858,10 @@
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>0.003410680936258975</v>
+        <v>0.003102788588999223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008675163884797615</v>
+        <v>0.008480306212982833</v>
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0383568508862693</v>
+        <v>0.03908278036186118</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06096349154890881</v>
+        <v>0.05773292490863122</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.06141400365113629</v>
+        <v>0.0606684440851868</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.03165497046672869</v>
+        <v>0.0297795180725398</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04060247273912371</v>
+        <v>0.03911445977830866</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.0379467322347945</v>
+        <v>0.0382195134372545</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.01920368377827589</v>
+        <v>0.0192036837782759</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0.002648154023787334</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04175070353995774</v>
+        <v>0.04175070353995773</v>
       </c>
     </row>
     <row r="11">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02688052416018806</v>
+        <v>0.02742395777783069</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.00514753389021897</v>
+        <v>0.005194064670219652</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0245513545487379</v>
+        <v>0.02410361488597719</v>
       </c>
     </row>
     <row r="12">
@@ -992,28 +992,28 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02142783484036057</v>
+        <v>0.02093053569746001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08950012988456819</v>
+        <v>0.09203420750807084</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.03890558783145547</v>
+        <v>0.04211476454739124</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.05857060587182984</v>
+        <v>0.05420912309290307</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.01329139283098895</v>
+        <v>0.01518903592580932</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01500556312911289</v>
+        <v>0.01319849416387766</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06980784082767312</v>
+        <v>0.07191589658023158</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1037,7 @@
         <v>0.009568214647507815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.00775622346710435</v>
+        <v>0.007756223467104348</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.008955451227019535</v>
@@ -1061,7 +1061,7 @@
         <v>0.005773860405269761</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.007479814039839439</v>
+        <v>0.007479814039839438</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004121386706329905</v>
+        <v>0.004073072525783592</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002916174047266343</v>
+        <v>0.003203596975969532</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.002162282772184979</v>
+        <v>0.001964764193281867</v>
       </c>
     </row>
     <row r="15">
@@ -1112,36 +1112,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04482598821996395</v>
+        <v>0.04167136649517693</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02416631737175545</v>
+        <v>0.02435546738619567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03182988827554809</v>
+        <v>0.0339143765104878</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02689097904247349</v>
+        <v>0.02511930674049305</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05111035742612371</v>
+        <v>0.05100076317945702</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03011966735439781</v>
+        <v>0.03017994007809742</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01678950252952783</v>
+        <v>0.01655980887262553</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02050667347771504</v>
+        <v>0.02148133110145302</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01999796336634958</v>
+        <v>0.01871046413218053</v>
       </c>
     </row>
     <row r="16">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.006209140945782711</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01504231049849139</v>
+        <v>0.01525322776715254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01052761083488913</v>
+        <v>0.01049874561520495</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01078040817946403</v>
+        <v>0.01074612587572168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007328995674111954</v>
+        <v>0.007480773340029879</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1236,32 +1236,32 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04770938414503432</v>
+        <v>0.04776059530045665</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09261702816723029</v>
+        <v>0.08934391041926221</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.102458152544074</v>
+        <v>0.09335462083634642</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03131971100686781</v>
+        <v>0.03135316200476772</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06547828343594626</v>
+        <v>0.06568943844083018</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06658726559906623</v>
+        <v>0.0709660772582875</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="19">
@@ -1309,7 +1309,7 @@
         <v>0.01623843286577386</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.0219043702604847</v>
+        <v>0.02190437026048471</v>
       </c>
     </row>
     <row r="20">
@@ -1326,32 +1326,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00522429303905244</v>
+        <v>0.005186046387072585</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.007813515097306611</v>
+        <v>0.008067149922795272</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008443882810257973</v>
+        <v>0.008329224376568734</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.006548645572941767</v>
+        <v>0.005908418517189213</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.006367037128766509</v>
+        <v>0.003466615667707592</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.009449743310164037</v>
+        <v>0.009658710243248474</v>
       </c>
     </row>
     <row r="21">
@@ -1362,38 +1362,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04865900769865667</v>
+        <v>0.04730778662120639</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02860822711577162</v>
+        <v>0.03166165826567217</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05033675973170743</v>
+        <v>0.05102115855167014</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04612086077606912</v>
+        <v>0.04921898471371847</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07277905297024793</v>
+        <v>0.07174616111780643</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.04513212074360456</v>
+        <v>0.03873670020250099</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04382476166836168</v>
+        <v>0.04031264823917037</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01917912802214206</v>
+        <v>0.01897932089195987</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03869052204390658</v>
+        <v>0.03396833803965906</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04397605680174047</v>
+        <v>0.04350881943788903</v>
       </c>
     </row>
     <row r="22">
@@ -1453,33 +1453,33 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.02099121843920669</v>
+        <v>0.02170105769631388</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01686307393670219</v>
+        <v>0.01637796749599232</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01624004133742445</v>
+        <v>0.01656245787225455</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
-        <v>0.004551756716194224</v>
+        <v>0.004408828353524612</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01125067277790568</v>
+        <v>0.008123994970738863</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01878874661499103</v>
+        <v>0.01893332565714797</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="n">
-        <v>0.01796380181442036</v>
+        <v>0.0172834936970595</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01777798922582233</v>
+        <v>0.01837411299588541</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02092481982077293</v>
+        <v>0.02183997725847003</v>
       </c>
     </row>
     <row r="24">
@@ -1491,33 +1491,33 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.06337369553117365</v>
+        <v>0.06502308838591228</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05687677571329967</v>
+        <v>0.05692353820744097</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0628000717826345</v>
+        <v>0.06391563806820506</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.0450370025743676</v>
+        <v>0.04208752467985927</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04786737691953015</v>
+        <v>0.04780953912726853</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08942321895427531</v>
+        <v>0.09802541224166768</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="n">
-        <v>0.0491517782181669</v>
+        <v>0.04742502976455222</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.046123812727811</v>
+        <v>0.04688886587360389</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05912545045633924</v>
+        <v>0.05631667234731749</v>
       </c>
     </row>
     <row r="25">
@@ -1541,7 +1541,7 @@
         <v>0.01229410361058462</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.009063325410775635</v>
+        <v>0.009063325410775636</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.01238879511900169</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008779883880511437</v>
+        <v>0.009387568263966448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.004228340012705216</v>
+        <v>0.00429130801907671</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.002331561601532667</v>
+        <v>0.00233020015399924</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.00386279396067296</v>
+        <v>0.003898911430454661</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
@@ -1598,16 +1598,16 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.002263356948632045</v>
+        <v>0.001395447921378881</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.007702009683053037</v>
+        <v>0.007600316057816094</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.002576061552412647</v>
+        <v>0.002669626002572658</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.003569788785981672</v>
+        <v>0.003582890749426373</v>
       </c>
     </row>
     <row r="27">
@@ -1618,38 +1618,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01256867603595854</v>
+        <v>0.01192714236918565</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03565692595610331</v>
+        <v>0.03746626925798125</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02680556851326601</v>
+        <v>0.02781261715694694</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02451363741645815</v>
+        <v>0.0241973913868011</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03336965987554241</v>
+        <v>0.03332471072953679</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02311765277781752</v>
+        <v>0.02788725959493674</v>
       </c>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.04853740298043138</v>
+        <v>0.0440932545092713</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01322834147830464</v>
+        <v>0.01423069727238248</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02765802346708151</v>
+        <v>0.02611810630534043</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01853503489510272</v>
+        <v>0.01804412338017301</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0239142683218295</v>
+        <v>0.02348186537713641</v>
       </c>
     </row>
     <row r="28">
@@ -1697,7 +1697,7 @@
         <v>0.01715439910276291</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.02071503823280385</v>
+        <v>0.02071503823280386</v>
       </c>
     </row>
     <row r="29">
@@ -1708,40 +1708,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02183725375963793</v>
+        <v>0.02158982205069808</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01491885692777258</v>
+        <v>0.01457452095551534</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01450507408791899</v>
+        <v>0.01517951670720425</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.005194030710306276</v>
+        <v>0.00575511526992899</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01159679876981761</v>
+        <v>0.01136709757893819</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01602602527691192</v>
+        <v>0.0166359273610199</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0128204070235271</v>
+        <v>0.01289779516664207</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01570336073091354</v>
+        <v>0.01526496235001995</v>
       </c>
     </row>
     <row r="30">
@@ -1752,40 +1752,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03748880031700936</v>
+        <v>0.03698935646267665</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02853495599252737</v>
+        <v>0.02880516240130222</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03031279102622324</v>
+        <v>0.03199657000424741</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01735462291319657</v>
+        <v>0.01778307388496512</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03183745372938492</v>
+        <v>0.03114575368916072</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02697281753136162</v>
+        <v>0.02703321172348632</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0222704794329203</v>
+        <v>0.022520919483899</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.02826555243181266</v>
+        <v>0.02709389389658603</v>
       </c>
     </row>
     <row r="31">
@@ -2060,16 +2060,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11378</v>
+        <v>11247</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7515</v>
+        <v>7222</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1833</v>
+        <v>1660</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1944</v>
+        <v>1874</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12039</v>
+        <v>13062</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11373</v>
+        <v>10730</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1258</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="7">
@@ -2104,40 +2104,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7411</v>
+        <v>7739</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27648</v>
+        <v>28065</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23068</v>
+        <v>23030</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11290</v>
+        <v>11484</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7148</v>
+        <v>6512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6662</v>
+        <v>6173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10959</v>
+        <v>10090</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3031</v>
+        <v>3025</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11254</v>
+        <v>11014</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30079</v>
+        <v>31613</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>28366</v>
+        <v>28836</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12637</v>
+        <v>13367</v>
       </c>
     </row>
     <row r="8">
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>999</v>
+        <v>922</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3993</v>
+        <v>3895</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
@@ -2254,10 +2254,10 @@
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="n">
-        <v>1029</v>
+        <v>936</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4003</v>
+        <v>3914</v>
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
@@ -2272,28 +2272,28 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8777</v>
+        <v>8943</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18906</v>
+        <v>17904</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>15888</v>
+        <v>15696</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>9546</v>
+        <v>8981</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18737</v>
+        <v>18051</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>14480</v>
+        <v>14584</v>
       </c>
     </row>
     <row r="12">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5035</v>
+        <v>5137</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6789</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="15">
@@ -2432,28 +2432,28 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4395</v>
+        <v>4293</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16765</v>
+        <v>17239</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4850</v>
+        <v>5250</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5225</v>
+        <v>4836</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>4348</v>
+        <v>4969</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>4902</v>
+        <v>4312</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19303</v>
+        <v>19886</v>
       </c>
     </row>
     <row r="16">
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1076</v>
+        <v>1182</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>737</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19">
@@ -2596,36 +2596,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10664</v>
+        <v>9913</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4616</v>
+        <v>4653</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7401</v>
+        <v>7885</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5450</v>
+        <v>5091</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6692</v>
+        <v>6677</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11109</v>
+        <v>11131</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4674</v>
+        <v>4610</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7901</v>
+        <v>8277</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>6820</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="20">
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1929</v>
+        <v>1956</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="inlineStr"/>
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4623</v>
+        <v>4628</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11874</v>
+        <v>11455</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9342</v>
+        <v>8512</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4516</v>
+        <v>4521</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>11938</v>
+        <v>11976</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8567</v>
+        <v>9130</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="24">
@@ -2898,32 +2898,32 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1273</v>
+        <v>1315</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2004</v>
+        <v>1808</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1876</v>
+        <v>1021</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2468</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="27">
@@ -2934,38 +2934,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9454</v>
+        <v>9191</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5260</v>
+        <v>5822</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9516</v>
+        <v>9646</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7516</v>
+        <v>8021</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8135</v>
+        <v>8020</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>4766</v>
+        <v>4091</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>13413</v>
+        <v>12338</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5333</v>
+        <v>5278</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11400</v>
+        <v>10009</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>11485</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="28">
@@ -3069,33 +3069,33 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>8343</v>
+        <v>8625</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6440</v>
+        <v>6255</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5679</v>
+        <v>5792</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
-        <v>972</v>
+        <v>941</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2853</v>
+        <v>2060</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4391</v>
+        <v>4424</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
       <c r="L30" s="6" t="n">
-        <v>10975</v>
+        <v>10559</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>11298</v>
+        <v>11677</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>12207</v>
+        <v>12741</v>
       </c>
     </row>
     <row r="31">
@@ -3107,33 +3107,33 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>25189</v>
+        <v>25845</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>21722</v>
+        <v>21740</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>21961</v>
+        <v>22352</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>9614</v>
+        <v>8984</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12140</v>
+        <v>12125</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>20896</v>
+        <v>22907</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="n">
-        <v>30028</v>
+        <v>28973</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>29313</v>
+        <v>29799</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>34493</v>
+        <v>32854</v>
       </c>
     </row>
     <row r="32">
@@ -3239,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3984</v>
+        <v>4260</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1930</v>
+        <v>1959</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>730</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>0</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1659</v>
+        <v>1023</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>5142</v>
+        <v>5074</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1859</v>
+        <v>1927</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1526</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="35">
@@ -3278,38 +3278,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6195</v>
+        <v>5879</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16179</v>
+        <v>17000</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>12235</v>
+        <v>12694</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>7678</v>
+        <v>7578</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8007</v>
+        <v>7996</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>4945</v>
+        <v>5966</v>
       </c>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>5541</v>
+        <v>5034</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>9694</v>
+        <v>10429</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>18466</v>
+        <v>17438</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>13377</v>
+        <v>13022</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>10220</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="36">
@@ -3412,40 +3412,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>44597</v>
+        <v>44092</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>29877</v>
+        <v>29187</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>24348</v>
+        <v>25480</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>5946</v>
+        <v>6588</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>10490</v>
+        <v>10282</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>49536</v>
+        <v>51421</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>40350</v>
+        <v>40594</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>40564</v>
+        <v>39432</v>
       </c>
     </row>
     <row r="39">
@@ -3456,40 +3456,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>76561</v>
+        <v>75541</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>57145</v>
+        <v>57686</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>50883</v>
+        <v>53709</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>19867</v>
+        <v>20357</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>28799</v>
+        <v>28174</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>83372</v>
+        <v>83559</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>70093</v>
+        <v>70881</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>73014</v>
+        <v>69988</v>
       </c>
     </row>
     <row r="40">
